--- a/Story/3 - Psyche Deepdive/7 - Eadem Omnia/Eadem Omnia.xlsx
+++ b/Story/3 - Psyche Deepdive/7 - Eadem Omnia/Eadem Omnia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\7 - Eadem Omnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1634A6-2311-43D0-8851-CE1D99AE7E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04A14D2-C977-4C33-8D7F-7E2BFDDB7BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{C1D8D740-B067-4F8C-AE94-69B655F312C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C1D8D740-B067-4F8C-AE94-69B655F312C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Aurita Deepdive" sheetId="1" r:id="rId1"/>
@@ -8765,9 +8765,6 @@
     <t>何事も変わらず</t>
   </si>
   <si>
-    <t>일상적으로 모든 일이 진행 중입니다</t>
-  </si>
-  <si>
     <t>Tout est normal</t>
   </si>
   <si>
@@ -8810,9 +8807,6 @@
     <t>これはオーリータのライフにおいて平凡な一日であり、降臨した災害の後、彼女が独りで過ごす毎日と同じくらい普通だった。</t>
   </si>
   <si>
-    <t>이것은 오레타의 삶에서 평범한 하루였습니다. 재난이 닥친 후, 그녀가 혼자 보낸 모든 날들과 다를 바 없는 평범함이었습니다.</t>
-  </si>
-  <si>
     <t>C'est une journée ordinaire pour Aurita, aussi ordinaire que chacune de ses journées passées seule après la catastrophe</t>
   </si>
   <si>
@@ -9090,13 +9084,19 @@
   </si>
   <si>
     <t>Stage_35575_Name</t>
+  </si>
+  <si>
+    <t>언제나처럼</t>
+  </si>
+  <si>
+    <t>이 날은 오레타에게 그저 평범한 하루였다. 재난이 닥친 후 홀로 보낸 모든 날처럼.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9118,6 +9118,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9143,10 +9149,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9160,9 +9167,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{789F2486-32F6-4EFE-BAF8-26869C2513CB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9378,7 +9389,7 @@
   <dimension ref="A1:S251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9476,34 +9487,34 @@
       <c r="L2" t="s">
         <v>2903</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>3011</v>
+      </c>
+      <c r="N2" t="s">
         <v>2904</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>2905</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>2906</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>2907</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>2908</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>2909</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2910</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B3" t="s">
         <v>2911</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2912</v>
       </c>
       <c r="C3" t="s">
         <v>2896</v>
@@ -9515,51 +9526,51 @@
         <v>2897</v>
       </c>
       <c r="F3" t="s">
+        <v>2912</v>
+      </c>
+      <c r="H3" t="s">
         <v>2913</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>2914</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>2915</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>2916</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>2917</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>3012</v>
+      </c>
+      <c r="N3" t="s">
         <v>2918</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>2919</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>2920</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>2921</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>2922</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>2923</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2924</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="B4" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="C4" t="s">
         <v>2896</v>
@@ -9571,51 +9582,51 @@
         <v>2897</v>
       </c>
       <c r="F4" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I4" t="s">
         <v>2928</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>2929</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>2930</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>2931</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="5" t="s">
         <v>2932</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>2933</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>2934</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>2935</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>2936</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>2937</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>2938</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2939</v>
-      </c>
-      <c r="S4" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="B5" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="C5" t="s">
         <v>2896</v>
@@ -9644,34 +9655,34 @@
       <c r="L5" t="s">
         <v>2903</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
+        <v>3011</v>
+      </c>
+      <c r="N5" t="s">
         <v>2904</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>2905</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>2906</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>2907</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>2908</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>2909</v>
-      </c>
-      <c r="S5" t="s">
-        <v>2910</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="B6" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="C6" t="s">
         <v>2896</v>
@@ -9683,51 +9694,51 @@
         <v>2897</v>
       </c>
       <c r="F6" t="s">
+        <v>2912</v>
+      </c>
+      <c r="H6" t="s">
         <v>2913</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>2914</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>2915</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>2916</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>2917</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>3012</v>
+      </c>
+      <c r="N6" t="s">
         <v>2918</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>2919</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>2920</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>2921</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>2922</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>2923</v>
-      </c>
-      <c r="R6" t="s">
-        <v>2924</v>
-      </c>
-      <c r="S6" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="B7" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="C7" t="s">
         <v>2896</v>
@@ -9739,51 +9750,51 @@
         <v>2897</v>
       </c>
       <c r="F7" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I7" t="s">
         <v>2928</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>2929</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>2930</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>2931</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="5" t="s">
         <v>2932</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>2933</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>2934</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>2935</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>2936</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>2937</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>2938</v>
-      </c>
-      <c r="R7" t="s">
-        <v>2939</v>
-      </c>
-      <c r="S7" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="B8" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="C8" t="s">
         <v>2896</v>
@@ -9812,34 +9823,34 @@
       <c r="L8" t="s">
         <v>2903</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
+        <v>3011</v>
+      </c>
+      <c r="N8" t="s">
         <v>2904</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>2905</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>2906</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>2907</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>2908</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>2909</v>
-      </c>
-      <c r="S8" t="s">
-        <v>2910</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="B9" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="C9" t="s">
         <v>2896</v>
@@ -9851,51 +9862,51 @@
         <v>2897</v>
       </c>
       <c r="F9" t="s">
+        <v>2912</v>
+      </c>
+      <c r="H9" t="s">
         <v>2913</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>2914</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>2915</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>2916</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>2917</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="5" t="s">
+        <v>3012</v>
+      </c>
+      <c r="N9" t="s">
         <v>2918</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>2919</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>2920</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>2921</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>2922</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>2923</v>
-      </c>
-      <c r="R9" t="s">
-        <v>2924</v>
-      </c>
-      <c r="S9" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="B10" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="C10" t="s">
         <v>2896</v>
@@ -9907,61 +9918,61 @@
         <v>2897</v>
       </c>
       <c r="F10" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I10" t="s">
         <v>2928</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>2929</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>2930</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>2931</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" s="5" t="s">
         <v>2932</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>2933</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>2934</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>2935</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>2936</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>2937</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>2938</v>
-      </c>
-      <c r="R10" t="s">
-        <v>2939</v>
-      </c>
-      <c r="S10" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C12" t="s">
         <v>2953</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2954</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2955</v>
       </c>
       <c r="D12">
         <v>1717</v>
       </c>
       <c r="E12" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F12" t="s">
         <v>2898</v>
@@ -10005,58 +10016,58 @@
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="B13" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="C13" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D13">
         <v>1717</v>
       </c>
       <c r="E13" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F13" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="H13" t="s">
+        <v>2957</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2958</v>
+      </c>
+      <c r="J13" t="s">
         <v>2959</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>2960</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>2961</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>2962</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>2963</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>2964</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>2965</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>2966</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>2967</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>2968</v>
-      </c>
-      <c r="R13" t="s">
-        <v>2969</v>
-      </c>
-      <c r="S13" t="s">
-        <v>2970</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13528,19 +13539,19 @@
     </row>
     <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="B75" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="C75" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D75">
         <v>1718</v>
       </c>
       <c r="E75" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F75" t="s">
         <v>2898</v>
@@ -13549,7 +13560,7 @@
         <v>2083</v>
       </c>
       <c r="I75" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="J75" t="s">
         <v>2081</v>
@@ -13584,75 +13595,75 @@
     </row>
     <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="B76" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="C76" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D76">
         <v>1718</v>
       </c>
       <c r="E76" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F76" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="H76" t="s">
+        <v>2974</v>
+      </c>
+      <c r="I76" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J76" t="s">
         <v>2976</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
         <v>2977</v>
       </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>2978</v>
       </c>
-      <c r="K76" t="s">
+      <c r="M76" t="s">
         <v>2979</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>2980</v>
       </c>
-      <c r="M76" t="s">
+      <c r="O76" t="s">
         <v>2981</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76" t="s">
         <v>2982</v>
       </c>
-      <c r="O76" t="s">
+      <c r="Q76" t="s">
         <v>2983</v>
       </c>
-      <c r="P76" t="s">
+      <c r="R76" t="s">
         <v>2984</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="S76" t="s">
         <v>2985</v>
-      </c>
-      <c r="R76" t="s">
-        <v>2986</v>
-      </c>
-      <c r="S76" t="s">
-        <v>2987</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="B77" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="C77" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D77">
         <v>1720</v>
       </c>
       <c r="E77" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F77" t="s">
         <v>2898</v>
@@ -13661,7 +13672,7 @@
         <v>2083</v>
       </c>
       <c r="I77" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="J77" t="s">
         <v>2081</v>
@@ -13696,75 +13707,75 @@
     </row>
     <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="B78" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="C78" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D78">
         <v>1720</v>
       </c>
       <c r="E78" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F78" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="H78" t="s">
+        <v>2974</v>
+      </c>
+      <c r="I78" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J78" t="s">
         <v>2976</v>
       </c>
-      <c r="I78" t="s">
+      <c r="K78" t="s">
         <v>2977</v>
       </c>
-      <c r="J78" t="s">
+      <c r="L78" t="s">
         <v>2978</v>
       </c>
-      <c r="K78" t="s">
+      <c r="M78" t="s">
         <v>2979</v>
       </c>
-      <c r="L78" t="s">
+      <c r="N78" t="s">
         <v>2980</v>
       </c>
-      <c r="M78" t="s">
+      <c r="O78" t="s">
         <v>2981</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" t="s">
         <v>2982</v>
       </c>
-      <c r="O78" t="s">
+      <c r="Q78" t="s">
         <v>2983</v>
       </c>
-      <c r="P78" t="s">
+      <c r="R78" t="s">
         <v>2984</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="S78" t="s">
         <v>2985</v>
-      </c>
-      <c r="R78" t="s">
-        <v>2986</v>
-      </c>
-      <c r="S78" t="s">
-        <v>2987</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="B79" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="C79" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D79">
         <v>1721</v>
       </c>
       <c r="E79" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F79" t="s">
         <v>2898</v>
@@ -13773,7 +13784,7 @@
         <v>2083</v>
       </c>
       <c r="I79" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="J79" t="s">
         <v>2081</v>
@@ -13808,58 +13819,58 @@
     </row>
     <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="B80" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="C80" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D80">
         <v>1721</v>
       </c>
       <c r="E80" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F80" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="H80" t="s">
+        <v>2974</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J80" t="s">
         <v>2976</v>
       </c>
-      <c r="I80" t="s">
+      <c r="K80" t="s">
         <v>2977</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
         <v>2978</v>
       </c>
-      <c r="K80" t="s">
+      <c r="M80" t="s">
         <v>2979</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
         <v>2980</v>
       </c>
-      <c r="M80" t="s">
+      <c r="O80" t="s">
         <v>2981</v>
       </c>
-      <c r="N80" t="s">
+      <c r="P80" t="s">
         <v>2982</v>
       </c>
-      <c r="O80" t="s">
+      <c r="Q80" t="s">
         <v>2983</v>
       </c>
-      <c r="P80" t="s">
+      <c r="R80" t="s">
         <v>2984</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="S80" t="s">
         <v>2985</v>
-      </c>
-      <c r="R80" t="s">
-        <v>2986</v>
-      </c>
-      <c r="S80" t="s">
-        <v>2987</v>
       </c>
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18916,19 +18927,19 @@
     </row>
     <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B173" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="C173" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D173">
         <v>1719</v>
       </c>
       <c r="E173" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F173" t="s">
         <v>2898</v>
@@ -18937,7 +18948,7 @@
         <v>971</v>
       </c>
       <c r="I173" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="J173" t="s">
         <v>969</v>
@@ -18972,58 +18983,58 @@
     </row>
     <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="B174" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="C174" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D174">
         <v>1719</v>
       </c>
       <c r="E174" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F174" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="H174" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="I174" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="J174" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="K174" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="L174" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="M174" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="N174" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="O174" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="P174" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="Q174" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="R174" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="S174" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="175" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
